--- a/data/management/Management_information_KAL_2016.xlsx
+++ b/data/management/Management_information_KAL_2016.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marse\seadrive_root\Tien-Che\My Libraries\PhD_Tien\Project\Briwecs\BRIWECS_Data_Publication\data\management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F587712-2341-440B-AFF1-ECEE9309AA16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D6EDB7-037C-A446-94AC-257CD1298396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="25440" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34520" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON_2016" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="112">
   <si>
     <t>General information</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Agim Ballvora</t>
   </si>
   <si>
-    <t>N-Düngung KAS</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.850 km </t>
   </si>
   <si>
@@ -327,15 +324,6 @@
     <t>Wintergerste</t>
   </si>
   <si>
-    <t>50 kg/ha</t>
-  </si>
-  <si>
-    <t>55 kg/ha</t>
-  </si>
-  <si>
-    <t>60 kg/ha</t>
-  </si>
-  <si>
     <t>55,0 kg/ha</t>
   </si>
   <si>
@@ -367,6 +355,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>CAN</t>
   </si>
 </sst>
 </file>
@@ -671,56 +662,56 @@
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="14" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="12" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="12" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,30 +951,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:C46"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -991,7 +982,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -999,7 +990,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1007,7 +998,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1015,7 +1006,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1023,7 +1014,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1031,15 +1022,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1047,43 +1038,43 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="13"/>
     </row>
-    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1091,30 +1082,30 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="19"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>18</v>
       </c>
@@ -1123,29 +1114,29 @@
       </c>
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="1:3" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C22" s="39">
         <v>2005</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="28">
         <v>42278</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>21</v>
       </c>
@@ -1154,7 +1145,7 @@
       </c>
       <c r="C24" s="31"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>22</v>
       </c>
@@ -1163,25 +1154,25 @@
       </c>
       <c r="C25" s="33"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="33"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C27" s="33"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>25</v>
       </c>
@@ -1192,7 +1183,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>26</v>
       </c>
@@ -1203,7 +1194,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>27</v>
       </c>
@@ -1214,7 +1205,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>28</v>
       </c>
@@ -1225,7 +1216,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>29</v>
       </c>
@@ -1236,7 +1227,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>30</v>
       </c>
@@ -1247,7 +1238,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>31</v>
       </c>
@@ -1258,16 +1249,16 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C35" s="33"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>33</v>
       </c>
@@ -1276,7 +1267,7 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>34</v>
       </c>
@@ -1285,7 +1276,7 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>35</v>
       </c>
@@ -1294,30 +1285,30 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C39" s="35">
         <v>42401</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C40" s="32"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G41" s="37"/>
     </row>
-    <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
@@ -1332,7 +1323,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>39</v>
       </c>
@@ -1367,7 +1358,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1380,9 +1371,7 @@
       <c r="D44" s="7">
         <v>0</v>
       </c>
-      <c r="E44" s="7">
-        <v>0</v>
-      </c>
+      <c r="E44" s="7"/>
       <c r="F44" s="9" t="s">
         <v>49</v>
       </c>
@@ -1390,7 +1379,7 @@
         <v>42324</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I44" s="18" t="s">
         <v>74</v>
@@ -1399,10 +1388,10 @@
         <v>50</v>
       </c>
       <c r="K44" s="23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1415,9 +1404,7 @@
       <c r="D45" s="7">
         <v>0</v>
       </c>
-      <c r="E45" s="7">
-        <v>0</v>
-      </c>
+      <c r="E45" s="7"/>
       <c r="F45" s="9" t="s">
         <v>52</v>
       </c>
@@ -1425,7 +1412,7 @@
         <v>42468</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I45" s="18" t="s">
         <v>75</v>
@@ -1434,10 +1421,10 @@
         <v>53</v>
       </c>
       <c r="K45" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1450,9 +1437,7 @@
       <c r="D46" s="7">
         <v>0</v>
       </c>
-      <c r="E46" s="7">
-        <v>0</v>
-      </c>
+      <c r="E46" s="7"/>
       <c r="F46" s="9" t="s">
         <v>55</v>
       </c>
@@ -1460,7 +1445,7 @@
         <v>42531</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>76</v>
@@ -1469,10 +1454,10 @@
         <v>56</v>
       </c>
       <c r="K46" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1496,10 +1481,10 @@
         <v>58</v>
       </c>
       <c r="K47" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1523,10 +1508,10 @@
         <v>60</v>
       </c>
       <c r="K48" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1550,10 +1535,10 @@
         <v>62</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -1576,7 +1561,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -1599,7 +1584,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -1622,7 +1607,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -1645,7 +1630,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
     </row>
-    <row r="55" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>39</v>
       </c>
@@ -1680,7 +1665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -1690,11 +1675,11 @@
       <c r="C56" s="8">
         <v>42446</v>
       </c>
-      <c r="D56" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>86</v>
+      <c r="D56" s="26">
+        <v>50</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>49</v>
@@ -1703,7 +1688,7 @@
         <v>42324</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="18" t="s">
         <v>74</v>
@@ -1712,10 +1697,10 @@
         <v>50</v>
       </c>
       <c r="K56" s="23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -1725,11 +1710,11 @@
       <c r="C57" s="8">
         <v>42466</v>
       </c>
-      <c r="D57" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>86</v>
+      <c r="D57" s="27">
+        <v>55</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>52</v>
@@ -1738,7 +1723,7 @@
         <v>42468</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I57" s="18" t="s">
         <v>75</v>
@@ -1747,10 +1732,10 @@
         <v>53</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -1760,11 +1745,11 @@
       <c r="C58" s="12">
         <v>42517</v>
       </c>
-      <c r="D58" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>86</v>
+      <c r="D58" s="27">
+        <v>60</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>55</v>
@@ -1773,7 +1758,7 @@
         <v>42531</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I58" s="18" t="s">
         <v>76</v>
@@ -1782,10 +1767,10 @@
         <v>56</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -1807,10 +1792,10 @@
         <v>58</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -1834,10 +1819,10 @@
         <v>60</v>
       </c>
       <c r="K60" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -1861,10 +1846,10 @@
         <v>62</v>
       </c>
       <c r="K61" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -1887,7 +1872,7 @@
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -1910,7 +1895,7 @@
       <c r="J63" s="15"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -1925,15 +1910,15 @@
         <v>42472</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I64" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1956,7 +1941,7 @@
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
@@ -1968,7 +1953,7 @@
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
     </row>
-    <row r="67" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>39</v>
       </c>
@@ -2003,7 +1988,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2013,11 +1998,11 @@
       <c r="C68" s="8">
         <v>42446</v>
       </c>
-      <c r="D68" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>86</v>
+      <c r="D68" s="26">
+        <v>50</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>49</v>
@@ -2026,7 +2011,7 @@
         <v>42324</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="18" t="s">
         <v>74</v>
@@ -2035,10 +2020,10 @@
         <v>50</v>
       </c>
       <c r="K68" s="23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2048,11 +2033,11 @@
       <c r="C69" s="8">
         <v>42466</v>
       </c>
-      <c r="D69" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>86</v>
+      <c r="D69" s="27">
+        <v>55</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>52</v>
@@ -2061,7 +2046,7 @@
         <v>42468</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I69" s="18" t="s">
         <v>75</v>
@@ -2070,10 +2055,10 @@
         <v>53</v>
       </c>
       <c r="K69" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -2083,11 +2068,11 @@
       <c r="C70" s="12">
         <v>42517</v>
       </c>
-      <c r="D70" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>86</v>
+      <c r="D70" s="27">
+        <v>60</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>55</v>
@@ -2096,7 +2081,7 @@
         <v>42531</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I70" s="18" t="s">
         <v>76</v>
@@ -2105,10 +2090,10 @@
         <v>56</v>
       </c>
       <c r="K70" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -2132,10 +2117,10 @@
         <v>58</v>
       </c>
       <c r="K71" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -2150,7 +2135,7 @@
         <v>42472</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I72" s="18" t="s">
         <v>77</v>
@@ -2159,10 +2144,10 @@
         <v>60</v>
       </c>
       <c r="K72" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -2177,19 +2162,19 @@
         <v>42480</v>
       </c>
       <c r="H73" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I73" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J73" s="23" t="s">
         <v>62</v>
       </c>
       <c r="K73" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>67</v>
       </c>
@@ -2204,15 +2189,15 @@
         <v>42492</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I74" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J74" s="15"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>67</v>
       </c>
@@ -2227,7 +2212,7 @@
         <v>42509</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I75" s="18" t="s">
         <v>79</v>
@@ -2235,7 +2220,7 @@
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>67</v>
       </c>
@@ -2250,15 +2235,15 @@
         <v>42472</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I76" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>67</v>
       </c>
@@ -2294,7 +2279,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.5" footer="0.5"/>
@@ -2308,7 +2293,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.5" footer="0.5"/>

--- a/data/management/Management_information_KAL_2016.xlsx
+++ b/data/management/Management_information_KAL_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D6EDB7-037C-A446-94AC-257CD1298396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DF66B0-F1BC-0746-9C01-7228EF1B5F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34520" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,12 +234,6 @@
     <t>8,25 m2</t>
   </si>
   <si>
-    <t>Zuckerrüben</t>
-  </si>
-  <si>
-    <t>Winterweizen</t>
-  </si>
-  <si>
     <t>20 (mg/100g)</t>
   </si>
   <si>
@@ -321,9 +315,6 @@
     <t>1,2 l/ha + 1,0 l/ha</t>
   </si>
   <si>
-    <t>Wintergerste</t>
-  </si>
-  <si>
     <t>55,0 kg/ha</t>
   </si>
   <si>
@@ -358,6 +349,15 @@
   </si>
   <si>
     <t>CAN</t>
+  </si>
+  <si>
+    <t>sugar beet</t>
+  </si>
+  <si>
+    <t>winter wheat</t>
+  </si>
+  <si>
+    <t>winter barley</t>
   </si>
 </sst>
 </file>
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -987,7 +987,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1003,7 +1003,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1011,7 +1011,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1019,7 +1019,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1027,7 +1027,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1055,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1063,7 +1063,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1071,7 +1071,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1101,7 +1101,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20" s="19"/>
     </row>
@@ -1119,7 +1119,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C22" s="39">
         <v>2005</v>
@@ -1130,7 +1130,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23" s="28">
         <v>42278</v>
@@ -1141,7 +1141,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C24" s="31"/>
     </row>
@@ -1150,7 +1150,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C25" s="33"/>
     </row>
@@ -1159,7 +1159,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C26" s="33"/>
     </row>
@@ -1168,7 +1168,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C27" s="33"/>
     </row>
@@ -1232,7 +1232,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" s="34">
         <v>42248</v>
@@ -1243,7 +1243,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" s="34">
         <v>42248</v>
@@ -1254,7 +1254,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C35" s="33"/>
     </row>
@@ -1290,7 +1290,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C39" s="35">
         <v>42401</v>
@@ -1301,7 +1301,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C40" s="32"/>
     </row>
@@ -1379,16 +1379,16 @@
         <v>42324</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J44" s="23" t="s">
         <v>50</v>
       </c>
       <c r="K44" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -1412,16 +1412,16 @@
         <v>42468</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J45" s="23" t="s">
         <v>53</v>
       </c>
       <c r="K45" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -1445,16 +1445,16 @@
         <v>42531</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J46" s="23" t="s">
         <v>56</v>
       </c>
       <c r="K46" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -1481,7 +1481,7 @@
         <v>58</v>
       </c>
       <c r="K47" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -1508,7 +1508,7 @@
         <v>60</v>
       </c>
       <c r="K48" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -1535,7 +1535,7 @@
         <v>62</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -1570,7 +1570,7 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G51" s="22">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>50</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>49</v>
@@ -1688,16 +1688,16 @@
         <v>42324</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J56" s="23" t="s">
         <v>50</v>
       </c>
       <c r="K56" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -1714,7 +1714,7 @@
         <v>55</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>52</v>
@@ -1723,16 +1723,16 @@
         <v>42468</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J57" s="23" t="s">
         <v>53</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -1749,7 +1749,7 @@
         <v>60</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>55</v>
@@ -1758,16 +1758,16 @@
         <v>42531</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J58" s="23" t="s">
         <v>56</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -1792,7 +1792,7 @@
         <v>58</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -1819,7 +1819,7 @@
         <v>60</v>
       </c>
       <c r="K60" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -1846,7 +1846,7 @@
         <v>62</v>
       </c>
       <c r="K61" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -1881,7 +1881,7 @@
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G63" s="22">
         <v>0</v>
@@ -1910,10 +1910,10 @@
         <v>42472</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I64" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
@@ -2002,7 +2002,7 @@
         <v>50</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>49</v>
@@ -2011,16 +2011,16 @@
         <v>42324</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J68" s="23" t="s">
         <v>50</v>
       </c>
       <c r="K68" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -2037,7 +2037,7 @@
         <v>55</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>52</v>
@@ -2046,16 +2046,16 @@
         <v>42468</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J69" s="23" t="s">
         <v>53</v>
       </c>
       <c r="K69" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -2072,7 +2072,7 @@
         <v>60</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>55</v>
@@ -2081,16 +2081,16 @@
         <v>42531</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J70" s="23" t="s">
         <v>56</v>
       </c>
       <c r="K70" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -2117,7 +2117,7 @@
         <v>58</v>
       </c>
       <c r="K71" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -2135,16 +2135,16 @@
         <v>42472</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J72" s="23" t="s">
         <v>60</v>
       </c>
       <c r="K72" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -2162,16 +2162,16 @@
         <v>42480</v>
       </c>
       <c r="H73" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I73" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J73" s="23" t="s">
         <v>62</v>
       </c>
       <c r="K73" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -2189,10 +2189,10 @@
         <v>42492</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I74" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J74" s="15"/>
       <c r="K74" s="15"/>
@@ -2206,16 +2206,16 @@
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
       <c r="F75" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G75" s="10">
         <v>42509</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
@@ -2235,10 +2235,10 @@
         <v>42472</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I76" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
